--- a/project-hourbook.xlsx
+++ b/project-hourbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni\Documents\GitHub\recom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEFFD832-CCF5-4D66-9A53-26C923EBDB2E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563CD7B-1BDA-431C-BD97-908C4BE85EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="262" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
   <si>
     <t>22.10.21</t>
   </si>
@@ -623,7 +623,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <color rgb="FF000000"/>
@@ -644,6 +644,10 @@
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="8"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -667,7 +671,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -679,6 +683,9 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -908,14 +915,14 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" workbookViewId="0">
-      <selection activeCell="C133" sqref="C133"/>
+    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
+      <selection activeCell="C131" sqref="C131"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -926,7 +933,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="7" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -937,7 +944,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -948,7 +955,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -959,7 +966,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="7" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -970,7 +977,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -981,7 +988,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="7" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -992,7 +999,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
@@ -1003,7 +1010,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="7" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -1014,7 +1021,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
@@ -1025,7 +1032,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
@@ -1036,7 +1043,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="7" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
@@ -1047,7 +1054,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="7" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
@@ -1058,7 +1065,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="1" t="s">
+      <c r="A14" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1">
@@ -1069,7 +1076,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="1" t="s">
+      <c r="A15" s="7" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1">
@@ -1080,7 +1087,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="1" t="s">
+      <c r="A16" s="7" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1">
@@ -1091,7 +1098,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="1" t="s">
+      <c r="A17" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1">
@@ -1102,7 +1109,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="1" t="s">
+      <c r="A18" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1">
@@ -1113,7 +1120,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="1" t="s">
+      <c r="A19" s="7" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1">
@@ -1124,7 +1131,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="1" t="s">
+      <c r="A20" s="7" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
@@ -1135,7 +1142,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
+      <c r="A21" s="7" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1">
@@ -1146,7 +1153,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="1" t="s">
+      <c r="A22" s="7" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1">
@@ -1157,7 +1164,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="1" t="s">
+      <c r="A23" s="7" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="1">
@@ -1168,7 +1175,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="1" t="s">
+      <c r="A24" s="7" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1">
@@ -1179,7 +1186,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="1" t="s">
+      <c r="A25" s="7" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1">
@@ -1190,7 +1197,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="1" t="s">
+      <c r="A26" s="7" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1">
@@ -1201,7 +1208,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
+      <c r="A27" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1">
@@ -1212,7 +1219,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="1" t="s">
+      <c r="A28" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="1">
@@ -1223,7 +1230,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="1" t="s">
+      <c r="A29" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="1">
@@ -1234,7 +1241,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="1" t="s">
+      <c r="A30" s="7" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="1">
@@ -1245,7 +1252,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="1" t="s">
+      <c r="A31" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -1256,7 +1263,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="1" t="s">
+      <c r="A32" s="7" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="1">
@@ -1267,7 +1274,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="1" t="s">
+      <c r="A33" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="1">
@@ -1278,7 +1285,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="1" t="s">
+      <c r="A34" s="7" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="1">
@@ -1289,7 +1296,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="1" t="s">
+      <c r="A35" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="1">
@@ -1300,7 +1307,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="1" t="s">
+      <c r="A36" s="7" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="1">
@@ -1311,7 +1318,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="1" t="s">
+      <c r="A37" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="1">
@@ -1322,7 +1329,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="1" t="s">
+      <c r="A38" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="1">
@@ -1333,7 +1340,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="1" t="s">
+      <c r="A39" s="7" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="1">
@@ -1344,7 +1351,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="1" t="s">
+      <c r="A40" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -1355,7 +1362,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="1" t="s">
+      <c r="A41" s="7" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="1">
@@ -1366,7 +1373,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="1" t="s">
+      <c r="A42" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="1">
@@ -1377,7 +1384,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="1" t="s">
+      <c r="A43" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="1">
@@ -1388,7 +1395,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="1" t="s">
+      <c r="A44" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="1">
@@ -1399,7 +1406,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="1" t="s">
+      <c r="A45" s="7" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="1">
@@ -1410,7 +1417,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="1" t="s">
+      <c r="A46" s="7" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="1">
@@ -1424,7 +1431,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="1" t="s">
+      <c r="A47" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B47" s="1">
@@ -1435,7 +1442,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="1" t="s">
+      <c r="A48" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="1">
@@ -1446,7 +1453,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="1" t="s">
+      <c r="A49" s="7" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="1">
@@ -1457,7 +1464,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="1" t="s">
+      <c r="A50" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="1">
@@ -1468,7 +1475,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="1" t="s">
+      <c r="A51" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="1">
@@ -1479,7 +1486,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="1" t="s">
+      <c r="A52" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="1">
@@ -1490,7 +1497,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="1" t="s">
+      <c r="A53" s="7" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="1">
@@ -1501,7 +1508,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="1" t="s">
+      <c r="A54" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="1">
@@ -1512,7 +1519,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="1" t="s">
+      <c r="A55" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="1">
@@ -1523,7 +1530,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="1" t="s">
+      <c r="A56" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="1">
@@ -1534,7 +1541,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="1" t="s">
+      <c r="A57" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="1">
@@ -1545,7 +1552,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="1" t="s">
+      <c r="A58" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1">
@@ -1556,7 +1563,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="1" t="s">
+      <c r="A59" s="7" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="1">
@@ -1567,7 +1574,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="1" t="s">
+      <c r="A60" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B60" s="1">
@@ -1578,7 +1585,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="1" t="s">
+      <c r="A61" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B61" s="1">
@@ -1589,7 +1596,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="1" t="s">
+      <c r="A62" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="1">
@@ -1600,7 +1607,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="1" t="s">
+      <c r="A63" s="7" t="s">
         <v>87</v>
       </c>
       <c r="B63" s="1">
@@ -1611,7 +1618,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="1" t="s">
+      <c r="A64" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B64" s="1">
@@ -1622,7 +1629,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="1" t="s">
+      <c r="A65" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="1">
@@ -1633,7 +1640,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="1" t="s">
+      <c r="A66" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="1">
@@ -1644,7 +1651,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="1" t="s">
+      <c r="A67" s="7" t="s">
         <v>92</v>
       </c>
       <c r="B67" s="1">
@@ -1655,7 +1662,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="1" t="s">
+      <c r="A68" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B68" s="1">
@@ -1666,7 +1673,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="1" t="s">
+      <c r="A69" s="7" t="s">
         <v>97</v>
       </c>
       <c r="B69" s="1">
@@ -1677,7 +1684,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="1" t="s">
+      <c r="A70" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B70" s="1">
@@ -1688,7 +1695,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="1" t="s">
+      <c r="A71" s="7" t="s">
         <v>100</v>
       </c>
       <c r="B71" s="1">
@@ -1699,7 +1706,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="1" t="s">
+      <c r="A72" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B72" s="1">
@@ -1710,7 +1717,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="1" t="s">
+      <c r="A73" s="7" t="s">
         <v>103</v>
       </c>
       <c r="B73" s="1">
@@ -1721,7 +1728,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="1" t="s">
+      <c r="A74" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B74" s="1">
@@ -1732,7 +1739,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="1" t="s">
+      <c r="A75" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="1">
@@ -1743,7 +1750,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="1" t="s">
+      <c r="A76" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B76" s="1">
@@ -1754,7 +1761,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="1" t="s">
+      <c r="A77" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B77" s="1">
@@ -1765,7 +1772,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="1" t="s">
+      <c r="A78" s="7" t="s">
         <v>106</v>
       </c>
       <c r="B78" s="1">
@@ -1776,7 +1783,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="1" t="s">
+      <c r="A79" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B79" s="1">
@@ -1787,7 +1794,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="1" t="s">
+      <c r="A80" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="1">
@@ -1798,7 +1805,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
+      <c r="A81" s="7" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="1">
@@ -1809,7 +1816,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="1" t="s">
+      <c r="A82" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="1">
@@ -1820,7 +1827,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="1" t="s">
+      <c r="A83" s="7" t="s">
         <v>116</v>
       </c>
       <c r="B83" s="1">
@@ -1831,7 +1838,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="1" t="s">
+      <c r="A84" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="1">
@@ -1842,7 +1849,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="1" t="s">
+      <c r="A85" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B85" s="1">
@@ -1853,7 +1860,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="1" t="s">
+      <c r="A86" s="7" t="s">
         <v>119</v>
       </c>
       <c r="B86" s="1">
@@ -1864,7 +1871,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
+      <c r="A87" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B87" s="1">
@@ -1875,7 +1882,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
+      <c r="A88" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B88" s="1">
@@ -1886,7 +1893,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="1" t="s">
+      <c r="A89" s="7" t="s">
         <v>123</v>
       </c>
       <c r="B89" s="1">
@@ -1897,7 +1904,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="1" t="s">
+      <c r="A90" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B90" s="1">
@@ -1908,7 +1915,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="1" t="s">
+      <c r="A91" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B91" s="1">
@@ -1919,7 +1926,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="1" t="s">
+      <c r="A92" s="7" t="s">
         <v>127</v>
       </c>
       <c r="B92" s="1">
@@ -1930,7 +1937,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="1" t="s">
+      <c r="A93" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B93" s="1">
@@ -1941,7 +1948,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="1" t="s">
+      <c r="A94" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B94" s="1">
@@ -1952,7 +1959,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="1" t="s">
+      <c r="A95" s="7" t="s">
         <v>130</v>
       </c>
       <c r="B95" s="1">
@@ -1963,7 +1970,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="1" t="s">
+      <c r="A96" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="1">
@@ -1974,7 +1981,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="1" t="s">
+      <c r="A97" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B97" s="1">
@@ -1985,7 +1992,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="1" t="s">
+      <c r="A98" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="1">
@@ -1996,7 +2003,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="1" t="s">
+      <c r="A99" s="7" t="s">
         <v>134</v>
       </c>
       <c r="B99" s="1">
@@ -2007,7 +2014,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="1" t="s">
+      <c r="A100" s="7" t="s">
         <v>139</v>
       </c>
       <c r="B100" s="1">
@@ -2018,7 +2025,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="1" t="s">
+      <c r="A101" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B101" s="1">
@@ -2029,7 +2036,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="1" t="s">
+      <c r="A102" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B102" s="1">
@@ -2040,7 +2047,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="1" t="s">
+      <c r="A103" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="1">
@@ -2051,7 +2058,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="1" t="s">
+      <c r="A104" s="7" t="s">
         <v>141</v>
       </c>
       <c r="B104" s="1">
@@ -2062,7 +2069,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="1" t="s">
+      <c r="A105" s="7" t="s">
         <v>146</v>
       </c>
       <c r="B105" s="1">
@@ -2073,7 +2080,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="1" t="s">
+      <c r="A106" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B106" s="1">
@@ -2084,7 +2091,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="1" t="s">
+      <c r="A107" s="7" t="s">
         <v>148</v>
       </c>
       <c r="B107" s="1">
@@ -2095,7 +2102,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="1" t="s">
+      <c r="A108" s="7" t="s">
         <v>151</v>
       </c>
       <c r="B108" s="1">
@@ -2106,7 +2113,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
+      <c r="A109" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B109" s="1">
@@ -2117,7 +2124,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="1" t="s">
+      <c r="A110" s="7" t="s">
         <v>153</v>
       </c>
       <c r="B110" s="1">
@@ -2128,7 +2135,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="1" t="s">
+      <c r="A111" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B111" s="1">
@@ -2139,7 +2146,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
+      <c r="A112" s="7" t="s">
         <v>156</v>
       </c>
       <c r="B112" s="1">
@@ -2150,7 +2157,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="1" t="s">
+      <c r="A113" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B113" s="1">
@@ -2161,7 +2168,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="1" t="s">
+      <c r="A114" s="7" t="s">
         <v>159</v>
       </c>
       <c r="B114" s="1">
@@ -2172,7 +2179,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="1" t="s">
+      <c r="A115" s="7" t="s">
         <v>162</v>
       </c>
       <c r="B115" s="1">
@@ -2183,7 +2190,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="1" t="s">
+      <c r="A116" s="7" t="s">
         <v>164</v>
       </c>
       <c r="B116" s="1">
@@ -2194,7 +2201,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="1" t="s">
+      <c r="A117" s="7" t="s">
         <v>166</v>
       </c>
       <c r="B117" s="1">
@@ -2205,7 +2212,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="1" t="s">
+      <c r="A118" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B118" s="1">
@@ -2216,7 +2223,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="1" t="s">
+      <c r="A119" s="7" t="s">
         <v>168</v>
       </c>
       <c r="B119" s="1">
@@ -2227,7 +2234,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="1" t="s">
+      <c r="A120" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B120" s="1">
@@ -2238,7 +2245,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="1" t="s">
+      <c r="A121" s="7" t="s">
         <v>171</v>
       </c>
       <c r="B121" s="1">
@@ -2249,7 +2256,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="1" t="s">
+      <c r="A122" s="7" t="s">
         <v>174</v>
       </c>
       <c r="B122" s="1">
@@ -2260,7 +2267,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="1" t="s">
+      <c r="A123" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B123" s="1">
@@ -2271,7 +2278,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="1" t="s">
+      <c r="A124" s="7" t="s">
         <v>176</v>
       </c>
       <c r="B124" s="1">
@@ -2282,7 +2289,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="1" t="s">
+      <c r="A125" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B125" s="1">
@@ -2293,7 +2300,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="1" t="s">
+      <c r="A126" s="7" t="s">
         <v>179</v>
       </c>
       <c r="B126" s="1">
@@ -2304,7 +2311,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="1" t="s">
+      <c r="A127" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B127" s="1">
@@ -2315,7 +2322,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="1" t="s">
+      <c r="A128" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B128" s="1">
@@ -2326,7 +2333,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="1" t="s">
+      <c r="A129" s="7" t="s">
         <v>182</v>
       </c>
       <c r="B129" s="1">
@@ -2337,7 +2344,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="1" t="s">
+      <c r="A130" s="7" t="s">
         <v>186</v>
       </c>
       <c r="B130" s="5">
@@ -2348,29 +2355,29 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="5"/>
-      <c r="B131" s="5"/>
+      <c r="A131" s="7" t="s">
+        <v>186</v>
+      </c>
+      <c r="B131" s="5">
+        <v>2</v>
+      </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A132" s="5" t="s">
-        <v>188</v>
-      </c>
-      <c r="B132" s="5">
-        <f>SUM(B1:B130)</f>
-        <v>180</v>
-      </c>
       <c r="C132" s="6"/>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="5"/>
-      <c r="B133" s="5"/>
+      <c r="A133" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B133" s="5">
+        <f>SUM(B1:B131)</f>
+        <v>182</v>
+      </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A134" s="5"/>
-      <c r="B134" s="5"/>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
@@ -5840,7 +5847,8 @@
       <c r="B1000" s="5"/>
     </row>
   </sheetData>
-  <conditionalFormatting sqref="B1:B1000">
+  <phoneticPr fontId="4" type="noConversion"/>
+  <conditionalFormatting sqref="B135:B1000 B1:B131 B133">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
@@ -5850,5 +5858,6 @@
     <hyperlink ref="C105" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000001000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="0" orientation="portrait" horizontalDpi="0" verticalDpi="0" copies="0"/>
 </worksheet>
 </file>
--- a/project-hourbook.xlsx
+++ b/project-hourbook.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\roni\Documents\GitHub\recom\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0563CD7B-1BDA-431C-BD97-908C4BE85EB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C2771DC-028C-42E0-983F-765CF02CD216}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="189">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="267" uniqueCount="193">
   <si>
     <t>22.10.21</t>
   </si>
@@ -617,6 +617,18 @@
   </si>
   <si>
     <t>total</t>
+  </si>
+  <si>
+    <t>decontainerized the production environment</t>
+  </si>
+  <si>
+    <t>attempts at deployment</t>
+  </si>
+  <si>
+    <t>more attempts at deployment</t>
+  </si>
+  <si>
+    <t>deployment success, final setup</t>
   </si>
 </sst>
 </file>
@@ -671,7 +683,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -682,7 +694,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -915,14 +926,14 @@
   </sheetPr>
   <dimension ref="A1:G1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A112" workbookViewId="0">
-      <selection activeCell="C131" sqref="C131"/>
+    <sheetView tabSelected="1" topLeftCell="A108" workbookViewId="0">
+      <selection activeCell="B136" sqref="B136"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A1" s="7" t="s">
+      <c r="A1" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1">
@@ -933,7 +944,7 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A2" s="7" t="s">
+      <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
       <c r="B2" s="1">
@@ -944,7 +955,7 @@
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A3" s="7" t="s">
+      <c r="A3" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B3" s="1">
@@ -955,7 +966,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A4" s="7" t="s">
+      <c r="A4" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B4" s="1">
@@ -966,7 +977,7 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A5" s="7" t="s">
+      <c r="A5" s="6" t="s">
         <v>3</v>
       </c>
       <c r="B5" s="1">
@@ -977,7 +988,7 @@
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A6" s="7" t="s">
+      <c r="A6" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B6" s="1">
@@ -988,7 +999,7 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A7" s="7" t="s">
+      <c r="A7" s="6" t="s">
         <v>7</v>
       </c>
       <c r="B7" s="1">
@@ -999,7 +1010,7 @@
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A8" s="7" t="s">
+      <c r="A8" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B8" s="1">
@@ -1010,7 +1021,7 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A9" s="7" t="s">
+      <c r="A9" s="6" t="s">
         <v>10</v>
       </c>
       <c r="B9" s="1">
@@ -1021,7 +1032,7 @@
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A10" s="7" t="s">
+      <c r="A10" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B10" s="1">
@@ -1032,7 +1043,7 @@
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A11" s="7" t="s">
+      <c r="A11" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B11" s="1">
@@ -1043,7 +1054,7 @@
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A12" s="7" t="s">
+      <c r="A12" s="6" t="s">
         <v>13</v>
       </c>
       <c r="B12" s="1">
@@ -1054,7 +1065,7 @@
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A13" s="7" t="s">
+      <c r="A13" s="6" t="s">
         <v>17</v>
       </c>
       <c r="B13" s="1">
@@ -1065,7 +1076,7 @@
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A14" s="7" t="s">
+      <c r="A14" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B14" s="1">
@@ -1076,7 +1087,7 @@
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A15" s="7" t="s">
+      <c r="A15" s="6" t="s">
         <v>19</v>
       </c>
       <c r="B15" s="1">
@@ -1087,7 +1098,7 @@
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A16" s="7" t="s">
+      <c r="A16" s="6" t="s">
         <v>22</v>
       </c>
       <c r="B16" s="1">
@@ -1098,7 +1109,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A17" s="7" t="s">
+      <c r="A17" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B17" s="1">
@@ -1109,7 +1120,7 @@
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A18" s="7" t="s">
+      <c r="A18" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B18" s="1">
@@ -1120,7 +1131,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A19" s="7" t="s">
+      <c r="A19" s="6" t="s">
         <v>24</v>
       </c>
       <c r="B19" s="1">
@@ -1131,7 +1142,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A20" s="7" t="s">
+      <c r="A20" s="6" t="s">
         <v>28</v>
       </c>
       <c r="B20" s="1">
@@ -1142,7 +1153,7 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A21" s="7" t="s">
+      <c r="A21" s="6" t="s">
         <v>30</v>
       </c>
       <c r="B21" s="1">
@@ -1153,7 +1164,7 @@
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>32</v>
       </c>
       <c r="B22" s="1">
@@ -1164,7 +1175,7 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A23" s="7" t="s">
+      <c r="A23" s="6" t="s">
         <v>34</v>
       </c>
       <c r="B23" s="1">
@@ -1175,7 +1186,7 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A24" s="7" t="s">
+      <c r="A24" s="6" t="s">
         <v>36</v>
       </c>
       <c r="B24" s="1">
@@ -1186,7 +1197,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A25" s="7" t="s">
+      <c r="A25" s="6" t="s">
         <v>38</v>
       </c>
       <c r="B25" s="1">
@@ -1197,7 +1208,7 @@
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A26" s="7" t="s">
+      <c r="A26" s="6" t="s">
         <v>40</v>
       </c>
       <c r="B26" s="1">
@@ -1208,7 +1219,7 @@
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A27" s="7" t="s">
+      <c r="A27" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B27" s="1">
@@ -1219,7 +1230,7 @@
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B28" s="1">
@@ -1230,7 +1241,7 @@
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A29" s="7" t="s">
+      <c r="A29" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B29" s="1">
@@ -1241,7 +1252,7 @@
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A30" s="7" t="s">
+      <c r="A30" s="6" t="s">
         <v>42</v>
       </c>
       <c r="B30" s="1">
@@ -1252,7 +1263,7 @@
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A31" s="7" t="s">
+      <c r="A31" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B31" s="1">
@@ -1263,7 +1274,7 @@
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A32" s="7" t="s">
+      <c r="A32" s="6" t="s">
         <v>47</v>
       </c>
       <c r="B32" s="1">
@@ -1274,7 +1285,7 @@
       </c>
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A33" s="7" t="s">
+      <c r="A33" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B33" s="1">
@@ -1285,7 +1296,7 @@
       </c>
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A34" s="7" t="s">
+      <c r="A34" s="6" t="s">
         <v>50</v>
       </c>
       <c r="B34" s="1">
@@ -1296,7 +1307,7 @@
       </c>
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B35" s="1">
@@ -1307,7 +1318,7 @@
       </c>
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A36" s="7" t="s">
+      <c r="A36" s="6" t="s">
         <v>53</v>
       </c>
       <c r="B36" s="1">
@@ -1318,7 +1329,7 @@
       </c>
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B37" s="1">
@@ -1329,7 +1340,7 @@
       </c>
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A38" s="7" t="s">
+      <c r="A38" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B38" s="1">
@@ -1340,7 +1351,7 @@
       </c>
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A39" s="7" t="s">
+      <c r="A39" s="6" t="s">
         <v>56</v>
       </c>
       <c r="B39" s="1">
@@ -1351,7 +1362,7 @@
       </c>
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A40" s="7" t="s">
+      <c r="A40" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B40" s="1">
@@ -1362,7 +1373,7 @@
       </c>
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A41" s="7" t="s">
+      <c r="A41" s="6" t="s">
         <v>60</v>
       </c>
       <c r="B41" s="1">
@@ -1373,7 +1384,7 @@
       </c>
     </row>
     <row r="42" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A42" s="7" t="s">
+      <c r="A42" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B42" s="1">
@@ -1384,7 +1395,7 @@
       </c>
     </row>
     <row r="43" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A43" s="7" t="s">
+      <c r="A43" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B43" s="1">
@@ -1395,7 +1406,7 @@
       </c>
     </row>
     <row r="44" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A44" s="7" t="s">
+      <c r="A44" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B44" s="1">
@@ -1406,7 +1417,7 @@
       </c>
     </row>
     <row r="45" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A45" s="7" t="s">
+      <c r="A45" s="6" t="s">
         <v>63</v>
       </c>
       <c r="B45" s="1">
@@ -1417,7 +1428,7 @@
       </c>
     </row>
     <row r="46" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A46" s="7" t="s">
+      <c r="A46" s="6" t="s">
         <v>68</v>
       </c>
       <c r="B46" s="1">
@@ -1431,7 +1442,7 @@
       </c>
     </row>
     <row r="47" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A47" s="7" t="s">
+      <c r="A47" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B47" s="1">
@@ -1442,7 +1453,7 @@
       </c>
     </row>
     <row r="48" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A48" s="7" t="s">
+      <c r="A48" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B48" s="1">
@@ -1453,7 +1464,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A49" s="7" t="s">
+      <c r="A49" s="6" t="s">
         <v>71</v>
       </c>
       <c r="B49" s="1">
@@ -1464,7 +1475,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A50" s="7" t="s">
+      <c r="A50" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B50" s="1">
@@ -1475,7 +1486,7 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B51" s="1">
@@ -1486,7 +1497,7 @@
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A52" s="7" t="s">
+      <c r="A52" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B52" s="1">
@@ -1497,7 +1508,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A53" s="7" t="s">
+      <c r="A53" s="6" t="s">
         <v>75</v>
       </c>
       <c r="B53" s="1">
@@ -1508,7 +1519,7 @@
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A54" s="7" t="s">
+      <c r="A54" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B54" s="1">
@@ -1519,7 +1530,7 @@
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A55" s="7" t="s">
+      <c r="A55" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B55" s="1">
@@ -1530,7 +1541,7 @@
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A56" s="7" t="s">
+      <c r="A56" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B56" s="1">
@@ -1541,7 +1552,7 @@
       </c>
     </row>
     <row r="57" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A57" s="7" t="s">
+      <c r="A57" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B57" s="1">
@@ -1552,7 +1563,7 @@
       </c>
     </row>
     <row r="58" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A58" s="7" t="s">
+      <c r="A58" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B58" s="1">
@@ -1563,7 +1574,7 @@
       </c>
     </row>
     <row r="59" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A59" s="7" t="s">
+      <c r="A59" s="6" t="s">
         <v>80</v>
       </c>
       <c r="B59" s="1">
@@ -1574,7 +1585,7 @@
       </c>
     </row>
     <row r="60" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A60" s="7" t="s">
+      <c r="A60" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B60" s="1">
@@ -1585,7 +1596,7 @@
       </c>
     </row>
     <row r="61" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A61" s="7" t="s">
+      <c r="A61" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B61" s="1">
@@ -1596,7 +1607,7 @@
       </c>
     </row>
     <row r="62" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A62" s="7" t="s">
+      <c r="A62" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B62" s="1">
@@ -1607,7 +1618,7 @@
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A63" s="7" t="s">
+      <c r="A63" s="6" t="s">
         <v>87</v>
       </c>
       <c r="B63" s="1">
@@ -1618,7 +1629,7 @@
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A64" s="7" t="s">
+      <c r="A64" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B64" s="1">
@@ -1629,7 +1640,7 @@
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B65" s="1">
@@ -1640,7 +1651,7 @@
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A66" s="7" t="s">
+      <c r="A66" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B66" s="1">
@@ -1651,7 +1662,7 @@
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A67" s="7" t="s">
+      <c r="A67" s="6" t="s">
         <v>92</v>
       </c>
       <c r="B67" s="1">
@@ -1662,7 +1673,7 @@
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A68" s="7" t="s">
+      <c r="A68" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B68" s="1">
@@ -1673,7 +1684,7 @@
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A69" s="7" t="s">
+      <c r="A69" s="6" t="s">
         <v>97</v>
       </c>
       <c r="B69" s="1">
@@ -1684,7 +1695,7 @@
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A70" s="7" t="s">
+      <c r="A70" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B70" s="1">
@@ -1695,7 +1706,7 @@
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A71" s="7" t="s">
+      <c r="A71" s="6" t="s">
         <v>100</v>
       </c>
       <c r="B71" s="1">
@@ -1706,7 +1717,7 @@
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A72" s="7" t="s">
+      <c r="A72" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B72" s="1">
@@ -1717,7 +1728,7 @@
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A73" s="7" t="s">
+      <c r="A73" s="6" t="s">
         <v>103</v>
       </c>
       <c r="B73" s="1">
@@ -1728,7 +1739,7 @@
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A74" s="7" t="s">
+      <c r="A74" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B74" s="1">
@@ -1739,7 +1750,7 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A75" s="7" t="s">
+      <c r="A75" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B75" s="1">
@@ -1750,7 +1761,7 @@
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A76" s="7" t="s">
+      <c r="A76" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B76" s="1">
@@ -1761,7 +1772,7 @@
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A77" s="7" t="s">
+      <c r="A77" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B77" s="1">
@@ -1772,7 +1783,7 @@
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A78" s="7" t="s">
+      <c r="A78" s="6" t="s">
         <v>106</v>
       </c>
       <c r="B78" s="1">
@@ -1783,7 +1794,7 @@
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A79" s="7" t="s">
+      <c r="A79" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B79" s="1">
@@ -1794,7 +1805,7 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A80" s="7" t="s">
+      <c r="A80" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B80" s="1">
@@ -1805,7 +1816,7 @@
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A81" s="7" t="s">
+      <c r="A81" s="6" t="s">
         <v>112</v>
       </c>
       <c r="B81" s="1">
@@ -1816,7 +1827,7 @@
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A82" s="7" t="s">
+      <c r="A82" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B82" s="1">
@@ -1827,7 +1838,7 @@
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A83" s="7" t="s">
+      <c r="A83" s="6" t="s">
         <v>116</v>
       </c>
       <c r="B83" s="1">
@@ -1838,7 +1849,7 @@
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A84" s="7" t="s">
+      <c r="A84" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B84" s="1">
@@ -1849,7 +1860,7 @@
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A85" s="7" t="s">
+      <c r="A85" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B85" s="1">
@@ -1860,7 +1871,7 @@
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A86" s="7" t="s">
+      <c r="A86" s="6" t="s">
         <v>119</v>
       </c>
       <c r="B86" s="1">
@@ -1871,7 +1882,7 @@
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A87" s="7" t="s">
+      <c r="A87" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B87" s="1">
@@ -1882,7 +1893,7 @@
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A88" s="7" t="s">
+      <c r="A88" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B88" s="1">
@@ -1893,7 +1904,7 @@
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A89" s="7" t="s">
+      <c r="A89" s="6" t="s">
         <v>123</v>
       </c>
       <c r="B89" s="1">
@@ -1904,7 +1915,7 @@
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A90" s="7" t="s">
+      <c r="A90" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B90" s="1">
@@ -1915,7 +1926,7 @@
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A91" s="7" t="s">
+      <c r="A91" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B91" s="1">
@@ -1926,7 +1937,7 @@
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A92" s="7" t="s">
+      <c r="A92" s="6" t="s">
         <v>127</v>
       </c>
       <c r="B92" s="1">
@@ -1937,7 +1948,7 @@
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A93" s="7" t="s">
+      <c r="A93" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B93" s="1">
@@ -1948,7 +1959,7 @@
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B94" s="1">
@@ -1959,7 +1970,7 @@
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A95" s="7" t="s">
+      <c r="A95" s="6" t="s">
         <v>130</v>
       </c>
       <c r="B95" s="1">
@@ -1970,7 +1981,7 @@
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A96" s="7" t="s">
+      <c r="A96" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B96" s="1">
@@ -1981,7 +1992,7 @@
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A97" s="7" t="s">
+      <c r="A97" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B97" s="1">
@@ -1992,7 +2003,7 @@
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A98" s="7" t="s">
+      <c r="A98" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B98" s="1">
@@ -2003,7 +2014,7 @@
       </c>
     </row>
     <row r="99" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A99" s="7" t="s">
+      <c r="A99" s="6" t="s">
         <v>134</v>
       </c>
       <c r="B99" s="1">
@@ -2014,7 +2025,7 @@
       </c>
     </row>
     <row r="100" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A100" s="7" t="s">
+      <c r="A100" s="6" t="s">
         <v>139</v>
       </c>
       <c r="B100" s="1">
@@ -2025,7 +2036,7 @@
       </c>
     </row>
     <row r="101" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A101" s="7" t="s">
+      <c r="A101" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B101" s="1">
@@ -2036,7 +2047,7 @@
       </c>
     </row>
     <row r="102" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A102" s="7" t="s">
+      <c r="A102" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B102" s="1">
@@ -2047,7 +2058,7 @@
       </c>
     </row>
     <row r="103" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A103" s="7" t="s">
+      <c r="A103" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B103" s="1">
@@ -2058,7 +2069,7 @@
       </c>
     </row>
     <row r="104" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A104" s="7" t="s">
+      <c r="A104" s="6" t="s">
         <v>141</v>
       </c>
       <c r="B104" s="1">
@@ -2069,7 +2080,7 @@
       </c>
     </row>
     <row r="105" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A105" s="7" t="s">
+      <c r="A105" s="6" t="s">
         <v>146</v>
       </c>
       <c r="B105" s="1">
@@ -2080,7 +2091,7 @@
       </c>
     </row>
     <row r="106" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A106" s="7" t="s">
+      <c r="A106" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B106" s="1">
@@ -2091,7 +2102,7 @@
       </c>
     </row>
     <row r="107" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A107" s="7" t="s">
+      <c r="A107" s="6" t="s">
         <v>148</v>
       </c>
       <c r="B107" s="1">
@@ -2102,7 +2113,7 @@
       </c>
     </row>
     <row r="108" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A108" s="7" t="s">
+      <c r="A108" s="6" t="s">
         <v>151</v>
       </c>
       <c r="B108" s="1">
@@ -2113,7 +2124,7 @@
       </c>
     </row>
     <row r="109" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B109" s="1">
@@ -2124,7 +2135,7 @@
       </c>
     </row>
     <row r="110" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A110" s="7" t="s">
+      <c r="A110" s="6" t="s">
         <v>153</v>
       </c>
       <c r="B110" s="1">
@@ -2135,7 +2146,7 @@
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A111" s="7" t="s">
+      <c r="A111" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B111" s="1">
@@ -2146,7 +2157,7 @@
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A112" s="7" t="s">
+      <c r="A112" s="6" t="s">
         <v>156</v>
       </c>
       <c r="B112" s="1">
@@ -2157,7 +2168,7 @@
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A113" s="7" t="s">
+      <c r="A113" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B113" s="1">
@@ -2168,7 +2179,7 @@
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A114" s="7" t="s">
+      <c r="A114" s="6" t="s">
         <v>159</v>
       </c>
       <c r="B114" s="1">
@@ -2179,7 +2190,7 @@
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A115" s="7" t="s">
+      <c r="A115" s="6" t="s">
         <v>162</v>
       </c>
       <c r="B115" s="1">
@@ -2190,7 +2201,7 @@
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A116" s="7" t="s">
+      <c r="A116" s="6" t="s">
         <v>164</v>
       </c>
       <c r="B116" s="1">
@@ -2201,7 +2212,7 @@
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A117" s="7" t="s">
+      <c r="A117" s="6" t="s">
         <v>166</v>
       </c>
       <c r="B117" s="1">
@@ -2212,7 +2223,7 @@
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A118" s="7" t="s">
+      <c r="A118" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B118" s="1">
@@ -2223,7 +2234,7 @@
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A119" s="7" t="s">
+      <c r="A119" s="6" t="s">
         <v>168</v>
       </c>
       <c r="B119" s="1">
@@ -2234,7 +2245,7 @@
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A120" s="7" t="s">
+      <c r="A120" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B120" s="1">
@@ -2245,7 +2256,7 @@
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A121" s="7" t="s">
+      <c r="A121" s="6" t="s">
         <v>171</v>
       </c>
       <c r="B121" s="1">
@@ -2256,7 +2267,7 @@
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A122" s="7" t="s">
+      <c r="A122" s="6" t="s">
         <v>174</v>
       </c>
       <c r="B122" s="1">
@@ -2267,7 +2278,7 @@
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A123" s="7" t="s">
+      <c r="A123" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B123" s="1">
@@ -2278,7 +2289,7 @@
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A124" s="7" t="s">
+      <c r="A124" s="6" t="s">
         <v>176</v>
       </c>
       <c r="B124" s="1">
@@ -2289,7 +2300,7 @@
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A125" s="7" t="s">
+      <c r="A125" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B125" s="1">
@@ -2300,7 +2311,7 @@
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A126" s="7" t="s">
+      <c r="A126" s="6" t="s">
         <v>179</v>
       </c>
       <c r="B126" s="1">
@@ -2311,7 +2322,7 @@
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A127" s="7" t="s">
+      <c r="A127" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B127" s="1">
@@ -2322,7 +2333,7 @@
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.2">
-      <c r="A128" s="7" t="s">
+      <c r="A128" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B128" s="1">
@@ -2333,7 +2344,7 @@
       </c>
     </row>
     <row r="129" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A129" s="7" t="s">
+      <c r="A129" s="6" t="s">
         <v>182</v>
       </c>
       <c r="B129" s="1">
@@ -2344,7 +2355,7 @@
       </c>
     </row>
     <row r="130" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A130" s="7" t="s">
+      <c r="A130" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B130" s="5">
@@ -2355,39 +2366,66 @@
       </c>
     </row>
     <row r="131" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A131" s="7" t="s">
+      <c r="A131" s="6" t="s">
         <v>186</v>
       </c>
       <c r="B131" s="5">
         <v>2</v>
       </c>
+      <c r="C131" s="2" t="s">
+        <v>189</v>
+      </c>
       <c r="E131" s="2"/>
     </row>
     <row r="132" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C132" s="6"/>
+      <c r="A132" s="6">
+        <v>44628</v>
+      </c>
+      <c r="B132" s="5">
+        <v>2</v>
+      </c>
+      <c r="C132" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="E132" s="2"/>
     </row>
     <row r="133" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A133" s="5" t="s">
-        <v>188</v>
+      <c r="A133" s="6">
+        <v>44628</v>
       </c>
       <c r="B133" s="5">
-        <f>SUM(B1:B131)</f>
-        <v>182</v>
+        <v>2</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>191</v>
       </c>
       <c r="E133" s="2"/>
     </row>
     <row r="134" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A134" s="6">
+        <v>44628</v>
+      </c>
+      <c r="B134" s="5">
+        <v>1</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>192</v>
+      </c>
       <c r="E134" s="2"/>
     </row>
     <row r="135" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A135" s="5"/>
+      <c r="A135" s="6"/>
       <c r="B135" s="5"/>
       <c r="E135" s="2"/>
     </row>
     <row r="136" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A136" s="5"/>
-      <c r="B136" s="5"/>
+      <c r="A136" s="5" t="s">
+        <v>188</v>
+      </c>
+      <c r="B136" s="5">
+        <f>SUM(B1:B134)</f>
+        <v>187</v>
+      </c>
       <c r="E136" s="2"/>
     </row>
     <row r="137" spans="1:5" x14ac:dyDescent="0.2">
@@ -5848,7 +5886,7 @@
     </row>
   </sheetData>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="B135:B1000 B1:B131 B133">
+  <conditionalFormatting sqref="B1:B1000">
     <cfRule type="notContainsBlanks" dxfId="0" priority="1">
       <formula>LEN(TRIM(B1))&gt;0</formula>
     </cfRule>
